--- a/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-001.xlsx
+++ b/HpApiClockify/HpClockfiyApi/HP-IND-24-06/HP-IND-24-06-A23-001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>521.030000</t>
+          <t>3434.750000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -518,13 +518,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rocia Luo</t>
+          <t>Cody C. Calliou</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>52.50</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -534,12 +534,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>69.470000</t>
+          <t>47.560000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>416.81</t>
+          <t>2496.90</t>
         </is>
       </c>
     </row>
@@ -552,13 +552,13 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rodney Erickson-Fitl</t>
+          <t>Rocia Luo</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>6.00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -573,7 +573,41 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>104.20</t>
+          <t>416.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rodney Erickson-Fitl</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>hr</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>69.470000</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>521.02</t>
         </is>
       </c>
     </row>
